--- a/docs/AQI_Breakingpoints.xlsx
+++ b/docs/AQI_Breakingpoints.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcompany-my.sharepoint.com/personal/ckiokak_netcompany_com/Documents/Documents/IoT/IoT-APARS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcompany-my.sharepoint.com/personal/ckiokak_netcompany_com/Documents/Documents/IoT/IoT-APARS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{EFB4ED94-A02A-4AB9-BF66-26D3E41130D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DA66A33-7CB5-4F15-BE72-E83038D28A19}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{EFB4ED94-A02A-4AB9-BF66-26D3E41130D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E9DA462-CB60-4D89-A00D-3DDFB0277E37}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{692AA805-449B-43EB-A383-3CF970FA8A04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{692AA805-449B-43EB-A383-3CF970FA8A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Breakingpoints" sheetId="1" r:id="rId1"/>
     <sheet name="Harmful Gasses" sheetId="2" r:id="rId2"/>
+    <sheet name="Sensors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
   <si>
     <t>Parameter</t>
   </si>
@@ -373,13 +374,103 @@
   </si>
   <si>
     <t>Importance</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/fermion-mems-carbon-monoxide-co-gas-detection-sensor-breakout-5-5000ppm.html</t>
+  </si>
+  <si>
+    <t>Fermion MEMS Carbon Monoxide CO Gas Detection Sensor (Breakout, 5-5000ppm)</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Gas Detected</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/fermion-mems-gas-sensor-mics-2714.html</t>
+  </si>
+  <si>
+    <t>NO, NO2, H2</t>
+  </si>
+  <si>
+    <t>Fermion MEMS Gas Sensor - MiCS-2714</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/fermion-mems-gas-sensor-mics-5524.html</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Fermion MEMS Gas Sensor - MiCS-5524</t>
+  </si>
+  <si>
+    <t>CO, CH4, 2H5OH, C3H8, C4H10, H2, H2S, NH3</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/gravity-electrochemical-ozone-sensor-0-10-ppm-i2c.html</t>
+  </si>
+  <si>
+    <t>Gravity Electrochemical Ozone Sensor (0-10 ppm, I2C)</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/gravity-factory-calibrated-electrochemical-co-sensor-0-1000-ppm-i2c-and-uart.html</t>
+  </si>
+  <si>
+    <t>Gravity Factory Calibrated Electrochemical CO Sensor (0-1000 ppm, I2C &amp; UART)</t>
+  </si>
+  <si>
+    <t>Fermion Air Quality Sensor - ENS160</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/fermion-air-quality-sensor-ens160.html</t>
+  </si>
+  <si>
+    <t>TVOC, eCO2, AQI</t>
+  </si>
+  <si>
+    <t>ethanol, formaldehyde, toluene, etc</t>
+  </si>
+  <si>
+    <t>Fermion MEMS Volatile Organic Compounds VOC Gas Detection Sensor (Breakout, 1-500ppm)</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/fermion-mems-volatile-organic-compounds-voc-gas-detection-sensor-breakout-1-500ppm.html</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/co2-humidity-and-temperature-sensor-scd30.html</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2 Humidity &amp; Temperature Sensor SCD30</t>
+  </si>
+  <si>
+    <t>Gravity Analog CO2 Gas Sensor - MG-811</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/gravity-analog-co2-gas-sensor-mg-811.html</t>
+  </si>
+  <si>
+    <t>Gravity Analog CO/Combustible Gas Sensor (MQ9)</t>
+  </si>
+  <si>
+    <t>https://grobotronics.com/gravity-analog-co-combustible-gas-sensor-mq9.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +494,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,8 +642,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -608,14 +708,11 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2107,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B564EADF-0EB1-4DAA-9677-9894F753A059}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -2165,16 +2262,16 @@
       <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -2185,16 +2282,16 @@
       <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="16" t="s">
@@ -2225,16 +2322,16 @@
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2242,16 +2339,16 @@
       <c r="A7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2259,16 +2356,16 @@
       <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2310,16 +2407,16 @@
       <c r="A11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2327,16 +2424,16 @@
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2344,16 +2441,16 @@
       <c r="A13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2361,16 +2458,16 @@
       <c r="A14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2378,16 +2475,16 @@
       <c r="A15" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2412,20 +2509,199 @@
       <c r="A17" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="13" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76DD00-39E0-4AEA-B32C-3B2020489E78}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2">
+        <v>6.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>12.4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>12.4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5">
+        <v>59.9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>82.9</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8">
+        <v>6.2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{BC9A072C-5137-443C-84F5-7D48C8B3E5F1}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{4739031A-69D4-47D3-AC29-56554C4E28A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>